--- a/Document/项目进度表.xlsx
+++ b/Document/项目进度表.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="项目进度表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Project Schedule</t>
   </si>
@@ -33,9 +36,6 @@
   </si>
   <si>
     <t>结束时间</t>
-  </si>
-  <si>
-    <t>持续时间</t>
   </si>
   <si>
     <t>负责人</t>
@@ -145,40 +145,48 @@
   </si>
   <si>
     <t>第20周</t>
+  </si>
+  <si>
+    <t>持续时间[天]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy-m-d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="13"/>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +217,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -222,28 +236,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -251,294 +243,152 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffff9690"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFF9690"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -664,7 +514,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -673,7 +523,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -682,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -756,7 +606,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -764,7 +614,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -783,7 +633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -813,7 +663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -865,7 +715,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -891,7 +741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +767,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,7 +793,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +819,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +845,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,7 +871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,9 +884,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1051,7 +907,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1059,7 +915,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1078,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1156,7 +1012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1182,7 +1038,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,7 +1064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1234,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1260,7 +1116,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1286,7 +1142,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1312,7 +1168,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1325,9 +1181,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1341,7 +1203,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1360,7 +1222,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1390,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1416,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1442,7 +1304,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1468,7 +1330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1494,7 +1356,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1520,7 +1382,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1546,7 +1408,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1572,7 +1434,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1598,7 +1460,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1611,42 +1473,49 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.17188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.4766" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1657,437 +1526,437 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" t="s" s="5">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s" s="5">
+    </row>
+    <row r="3" spans="1:10" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s" s="11">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>41308</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <f>F3+14</f>
         <v>41322</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <f>G3-F3</f>
         <v>14</v>
       </c>
-      <c r="I3" t="s" s="12">
+      <c r="I3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" t="s" s="17">
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18">
-        <v>2</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" t="s" s="17">
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18">
-        <v>3</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" t="s" s="20">
-        <v>17</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <f>G3+1</f>
         <v>41323</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <f>F5+14</f>
         <v>41337</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <f>G5-F5</f>
         <v>14</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" t="s" s="17">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18">
-        <v>4</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="21">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="22">
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18">
-        <v>5</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" t="s" s="20">
-        <v>21</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="F7" s="11">
         <f>G5+1</f>
         <v>41338</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="11">
         <v>41359</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="13">
         <f>G7-F7</f>
         <v>21</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" t="s" s="22">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="18">
-        <v>6</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" t="s" s="22">
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="18">
-        <v>7</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" t="s" s="22">
+      <c r="C10" s="9">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="18">
-        <v>8</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" t="s" s="30">
-        <v>25</v>
-      </c>
-      <c r="F10" s="31">
+      <c r="F10" s="11">
         <f>G7+1</f>
         <v>41360</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="11">
         <f>F10+21</f>
         <v>41381</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="13">
         <f>G10-F10</f>
         <v>21</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="21">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s" s="32">
+      <c r="C11" s="9">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="33">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s" s="11">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" t="s" s="17">
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="18">
-        <v>10</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" t="s" s="17">
+      <c r="C13" s="9">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="18">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="23">
+      <c r="E13" s="5"/>
+      <c r="F13" s="11">
         <f>G10+1</f>
         <v>41382</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="11">
         <f>F13+42</f>
         <v>41424</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="13">
         <f>G13-F13</f>
         <v>42</v>
       </c>
-      <c r="I13" t="s" s="20">
+      <c r="I13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s" s="17">
+      <c r="C14" s="9">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="18">
-        <v>12</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="8">
+      <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s" s="17">
+      <c r="C15" s="9">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="18">
-        <v>13</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" t="s" s="17">
+      <c r="C16" s="9">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="18">
-        <v>14</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" t="s" s="17">
+      <c r="C17" s="9">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="18">
-        <v>15</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" t="s" s="17">
+      <c r="C18" s="9">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="18">
-        <v>16</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s" s="17">
-        <v>40</v>
-      </c>
-      <c r="C20" s="36">
+      <c r="C20" s="15">
         <v>17</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="19"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="C21" s="36">
+    <row r="21" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="15">
         <v>18</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="19"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" t="s" s="17">
-        <v>42</v>
-      </c>
-      <c r="C22" s="36">
+    <row r="22" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="15">
         <v>19</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="19"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" t="s" s="17">
-        <v>43</v>
-      </c>
-      <c r="C23" s="36">
+    <row r="23" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="15">
         <v>20</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="19"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -2096,18 +1965,18 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D13:E18"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G10:G12"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="E7:E9"/>
@@ -2124,23 +1993,37 @@
     <mergeCell ref="F13:F18"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="G13:G18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D13:E18"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>